--- a/LineasClubPersonalFront.xlsx
+++ b/LineasClubPersonalFront.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A674155\eclipse-workspace\WebPersonal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{050684FB-A34E-4FBB-BB83-9781CA2BDA15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE338935-50F3-441B-872F-0CB862F445F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Linea</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Resumen_de_Puntos_MIX</t>
+  </si>
+  <si>
+    <t>Actualización_de_Datos_MIX</t>
+  </si>
+  <si>
+    <t>Actualización_de_Datos_POS</t>
+  </si>
+  <si>
+    <t>Actualización_de_Datos_PRE</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +523,30 @@
         <v>1162816939</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1162816939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1145642605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1162676705</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LineasClubPersonalFront.xlsx
+++ b/LineasClubPersonalFront.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A674155\eclipse-workspace\WebPersonal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE338935-50F3-441B-872F-0CB862F445F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE6F64F8-6CAD-4459-89B1-3BE79EEA8C64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,13 +63,13 @@
     <t>Resumen_de_Puntos_MIX</t>
   </si>
   <si>
-    <t>Actualización_de_Datos_MIX</t>
-  </si>
-  <si>
-    <t>Actualización_de_Datos_POS</t>
-  </si>
-  <si>
-    <t>Actualización_de_Datos_PRE</t>
+    <t>Actualizacion_de_Datos_MIX</t>
+  </si>
+  <si>
+    <t>Actualizacion_de_Datos_POS</t>
+  </si>
+  <si>
+    <t>Actualizacion_de_Datos_PRE</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LineasClubPersonalFront.xlsx
+++ b/LineasClubPersonalFront.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A674155\eclipse-workspace\WebPersonal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Telecom\WebPersonal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE6F64F8-6CAD-4459-89B1-3BE79EEA8C64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E36C7B3-E9CD-4331-8D0F-82BB5FF0A060}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Linea</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t>Actualizacion_de_Datos_PRE</t>
+  </si>
+  <si>
+    <t>Resumen_de_Puntos_POS</t>
+  </si>
+  <si>
+    <t>Resumen_de_Puntos_PRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +103,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -133,6 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -525,25 +539,41 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1162816939</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1145642605</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1145642605</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1162676705</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1162816939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1145642605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>1162676705</v>
       </c>
     </row>

--- a/LineasClubPersonalFront.xlsx
+++ b/LineasClubPersonalFront.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Telecom\WebPersonal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A674155\eclipse-workspace\WebPersonal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E36C7B3-E9CD-4331-8D0F-82BB5FF0A060}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{510C4170-454D-432F-9C2F-96A292DDDE87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Linea</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Resumen_de_Puntos_PRE</t>
+  </si>
+  <si>
+    <t>Canje_de_Puntos_Canje_de_Credito_MIX</t>
+  </si>
+  <si>
+    <t>Canje_de_Puntos_Canje_de_Credito_PRE</t>
+  </si>
+  <si>
+    <t>Canje_de_Puntos_Canje_de_Pack_MIX</t>
+  </si>
+  <si>
+    <t>Canje_de_Puntos_Canje_de_Pack_PRE</t>
   </si>
 </sst>
 </file>
@@ -427,13 +439,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -577,6 +589,38 @@
         <v>1162676705</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1162816939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1162676705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1162816939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1162676705</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LineasClubPersonalFront.xlsx
+++ b/LineasClubPersonalFront.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A674155\eclipse-workspace\WebPersonal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{510C4170-454D-432F-9C2F-96A292DDDE87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C9961B3-7D2A-44A4-A4B3-D6F1D3EF89DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Linea</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>Canje_de_Puntos_Canje_de_Pack_PRE</t>
+  </si>
+  <si>
+    <t>Canjes_Realizados_MIX</t>
+  </si>
+  <si>
+    <t>Canjes_Realizados_POS</t>
+  </si>
+  <si>
+    <t>Canjes_Realizados_PRE</t>
+  </si>
+  <si>
+    <t>Movimientos_de_Puntos_MIX</t>
+  </si>
+  <si>
+    <t>Movimientos_de_Puntos_POS</t>
+  </si>
+  <si>
+    <t>Movimientos_de_Puntos_PRE</t>
   </si>
 </sst>
 </file>
@@ -439,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +639,54 @@
         <v>1162676705</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1162816939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1145642605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1162676705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1162816939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1145642605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1162676705</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LineasClubPersonalFront.xlsx
+++ b/LineasClubPersonalFront.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A674155\eclipse-workspace\WebPersonal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C9961B3-7D2A-44A4-A4B3-D6F1D3EF89DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED5A4955-4A3A-4A5F-A56B-341AEF4518C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Linea</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Movimientos_de_Puntos_PRE</t>
+  </si>
+  <si>
+    <t>Adhesion_Usuario_MIX</t>
+  </si>
+  <si>
+    <t>Adhesion_Usuario_POS</t>
+  </si>
+  <si>
+    <t>Adhesion_Usuario_PRE</t>
   </si>
 </sst>
 </file>
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,40 +521,40 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="4">
-        <v>1162816939</v>
+        <v>1162786772</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>1145642605</v>
+        <v>1156393564</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1162676705</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1162678774</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>1162816939</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1145642605</v>
@@ -553,7 +562,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1162676705</v>
@@ -561,7 +570,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>1162816939</v>
@@ -569,23 +578,23 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12">
         <v>1145642605</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <v>1162676705</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>1162816939</v>
@@ -593,23 +602,23 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
         <v>1145642605</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
         <v>1162676705</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4">
         <v>1162816939</v>
@@ -617,47 +626,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>1162676705</v>
+        <v>1145642605</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1162816939</v>
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>1162676705</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>1162676705</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1162816939</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1162816939</v>
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1162676705</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>1145642605</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1162816939</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>1162676705</v>
@@ -665,7 +674,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4">
         <v>1162816939</v>
@@ -673,7 +682,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>1145642605</v>
@@ -681,9 +690,33 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>1162676705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1162816939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1145642605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <v>1162676705</v>
       </c>
     </row>
